--- a/xlsx/country_comparison/gcs_important_positive.xlsx
+++ b/xlsx/country_comparison/gcs_important_positive.xlsx
@@ -426,22 +426,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.781792076955675</v>
+        <v>0.593300805548547</v>
       </c>
       <c r="C2" t="n">
-        <v>0.849355519254144</v>
+        <v>0.798316168795588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.848862622959451</v>
+        <v>0.809737487250624</v>
       </c>
       <c r="E2" t="n">
-        <v>0.863126070347844</v>
+        <v>0.801269845163997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.863285412891485</v>
+        <v>0.802759474182296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.833244627262759</v>
+        <v>0.803503442074255</v>
       </c>
     </row>
     <row r="3">
@@ -449,22 +449,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.813667927844942</v>
+        <v>0.891425446185947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.665906725952896</v>
+        <v>0.734343884976076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.607432380472566</v>
+        <v>0.66011845184374</v>
       </c>
       <c r="E3" t="n">
-        <v>0.673839478785807</v>
+        <v>0.773993520808291</v>
       </c>
       <c r="F3" t="n">
-        <v>0.657169211771068</v>
+        <v>0.769785232844933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.690835106601304</v>
+        <v>0.734188607563879</v>
       </c>
     </row>
     <row r="4">
@@ -472,22 +472,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.753864769242379</v>
+        <v>0.837842434332639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.603267309381416</v>
+        <v>0.649556135900333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.553916523050434</v>
+        <v>0.544523480585528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.634502026544765</v>
+        <v>0.727832934920089</v>
       </c>
       <c r="F4" t="n">
-        <v>0.589338070076618</v>
+        <v>0.722448306363765</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625151968252833</v>
+        <v>0.676610115099755</v>
       </c>
     </row>
     <row r="5">
@@ -495,22 +495,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.777298058332462</v>
+        <v>0.747059011250423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.790239849959044</v>
+        <v>0.760748646394783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.831283093710656</v>
+        <v>0.820640960368556</v>
       </c>
       <c r="E5" t="n">
-        <v>0.792627442855504</v>
+        <v>0.745104631264865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.781774044391452</v>
+        <v>0.72988960058406</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7670387246316</v>
+        <v>0.728092737150705</v>
       </c>
     </row>
     <row r="6">
@@ -518,22 +518,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.768956430426192</v>
+        <v>0.620917729383005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.848600325192891</v>
+        <v>0.78913119672879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.882123622438504</v>
+        <v>0.855042207071307</v>
       </c>
       <c r="E6" t="n">
-        <v>0.847762661185943</v>
+        <v>0.753586689991038</v>
       </c>
       <c r="F6" t="n">
-        <v>0.862519778212693</v>
+        <v>0.834664561377067</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812142695785371</v>
+        <v>0.754698076525027</v>
       </c>
     </row>
     <row r="7">
@@ -541,22 +541,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.785387788822737</v>
+        <v>0.701622795907415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.722764735227507</v>
+        <v>0.712710646471761</v>
       </c>
       <c r="D7" t="n">
-        <v>0.788092642444145</v>
+        <v>0.757480297774307</v>
       </c>
       <c r="E7" t="n">
-        <v>0.66876277172299</v>
+        <v>0.637897645695564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.781375671969905</v>
+        <v>0.877803125109165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.700159157691239</v>
+        <v>0.700890373546844</v>
       </c>
     </row>
     <row r="8">
@@ -564,22 +564,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.823106827886823</v>
+        <v>0.71036942310177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.813940834692694</v>
+        <v>0.767459227638374</v>
       </c>
       <c r="D8" t="n">
-        <v>0.814127219354403</v>
+        <v>0.769430442315501</v>
       </c>
       <c r="E8" t="n">
-        <v>0.817542214350788</v>
+        <v>0.758346955137085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.848384772393614</v>
+        <v>0.84096493071521</v>
       </c>
       <c r="G8" t="n">
-        <v>0.798440183168175</v>
+        <v>0.746768125063093</v>
       </c>
     </row>
     <row r="9">
@@ -587,22 +587,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.788097454508634</v>
+        <v>0.776451040625449</v>
       </c>
       <c r="C9" t="n">
-        <v>0.748062572706373</v>
+        <v>0.752356847825706</v>
       </c>
       <c r="D9" t="n">
-        <v>0.81766831549821</v>
+        <v>0.829686492804909</v>
       </c>
       <c r="E9" t="n">
-        <v>0.685057474556869</v>
+        <v>0.705157484400394</v>
       </c>
       <c r="F9" t="n">
-        <v>0.789232894471016</v>
+        <v>0.849273919987832</v>
       </c>
       <c r="G9" t="n">
-        <v>0.724375824671621</v>
+        <v>0.66342378640839</v>
       </c>
     </row>
     <row r="10">
@@ -610,22 +610,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.802215745806022</v>
+        <v>0.869708886859866</v>
       </c>
       <c r="C10" t="n">
-        <v>0.788954875252674</v>
+        <v>0.815652162844027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.796439642608428</v>
+        <v>0.834311730887263</v>
       </c>
       <c r="E10" t="n">
-        <v>0.744830059509387</v>
+        <v>0.8156709550428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.833479461725312</v>
+        <v>0.867891452365697</v>
       </c>
       <c r="G10" t="n">
-        <v>0.811832785438631</v>
+        <v>0.7671375817381</v>
       </c>
     </row>
     <row r="11">
@@ -633,22 +633,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.769051039441448</v>
+        <v>0.849616378214432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.707149714298534</v>
+        <v>0.734028088236682</v>
       </c>
       <c r="D11" t="n">
-        <v>0.739404784241528</v>
+        <v>0.756084447572338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.622144203827349</v>
+        <v>0.685545279841557</v>
       </c>
       <c r="F11" t="n">
-        <v>0.790728857332737</v>
+        <v>0.842706846604206</v>
       </c>
       <c r="G11" t="n">
-        <v>0.707993241866075</v>
+        <v>0.69712559445501</v>
       </c>
     </row>
     <row r="12">
@@ -656,22 +656,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.889639898352255</v>
+        <v>0.891121217137727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.82411912592662</v>
+        <v>0.819983433106146</v>
       </c>
       <c r="D12" t="n">
-        <v>0.88966513094401</v>
+        <v>0.87483983315479</v>
       </c>
       <c r="E12" t="n">
-        <v>0.680672740829799</v>
+        <v>0.673226727255466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.908863993352952</v>
+        <v>0.913082349886563</v>
       </c>
       <c r="G12" t="n">
-        <v>0.878432115835494</v>
+        <v>0.869575896966582</v>
       </c>
     </row>
   </sheetData>
